--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>14.768619</v>
+        <v>0.022591</v>
       </c>
       <c r="H2">
-        <v>44.305857</v>
+        <v>0.067773</v>
       </c>
       <c r="I2">
-        <v>0.9736679609684162</v>
+        <v>0.001469689085715816</v>
       </c>
       <c r="J2">
-        <v>0.9736679609684162</v>
+        <v>0.001469689085715816</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>24.759128</v>
+        <v>0.006053333333333333</v>
       </c>
       <c r="N2">
-        <v>74.277384</v>
+        <v>0.01816</v>
       </c>
       <c r="O2">
-        <v>0.9895671066967037</v>
+        <v>0.0002373030766683641</v>
       </c>
       <c r="P2">
-        <v>0.9895671066967037</v>
+        <v>0.0002373030766683641</v>
       </c>
       <c r="Q2">
-        <v>365.658128204232</v>
+        <v>0.0001367508533333333</v>
       </c>
       <c r="R2">
-        <v>3290.923153838088</v>
+        <v>0.00123075768</v>
       </c>
       <c r="S2">
-        <v>0.9635097870187946</v>
+        <v>3.487617417862782E-07</v>
       </c>
       <c r="T2">
-        <v>0.9635097870187946</v>
+        <v>3.487617417862783E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,93 +581,93 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>14.768619</v>
+        <v>0.022591</v>
       </c>
       <c r="H3">
-        <v>44.305857</v>
+        <v>0.067773</v>
       </c>
       <c r="I3">
-        <v>0.9736679609684162</v>
+        <v>0.001469689085715816</v>
       </c>
       <c r="J3">
-        <v>0.9736679609684162</v>
+        <v>0.001469689085715816</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2610326666666666</v>
+        <v>24.759128</v>
       </c>
       <c r="N3">
-        <v>0.783098</v>
+        <v>74.277384</v>
       </c>
       <c r="O3">
-        <v>0.0104328933032964</v>
+        <v>0.970608576546119</v>
       </c>
       <c r="P3">
-        <v>0.0104328933032964</v>
+        <v>0.9706085765461191</v>
       </c>
       <c r="Q3">
-        <v>3.855092000553999</v>
+        <v>0.559333460648</v>
       </c>
       <c r="R3">
-        <v>34.695828004986</v>
+        <v>5.034001145832</v>
       </c>
       <c r="S3">
-        <v>0.01015817394962165</v>
+        <v>0.001426492831451995</v>
       </c>
       <c r="T3">
-        <v>0.01015817394962165</v>
+        <v>0.001426492831451995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.399405</v>
+        <v>0.022591</v>
       </c>
       <c r="H4">
-        <v>1.198215</v>
+        <v>0.067773</v>
       </c>
       <c r="I4">
-        <v>0.02633203903158381</v>
+        <v>0.001469689085715816</v>
       </c>
       <c r="J4">
-        <v>0.02633203903158381</v>
+        <v>0.001469689085715816</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.759128</v>
+        <v>0.7436886666666668</v>
       </c>
       <c r="N4">
-        <v>74.277384</v>
+        <v>2.231066</v>
       </c>
       <c r="O4">
-        <v>0.9895671066967037</v>
+        <v>0.02915412037721258</v>
       </c>
       <c r="P4">
-        <v>0.9895671066967037</v>
+        <v>0.02915412037721259</v>
       </c>
       <c r="Q4">
-        <v>9.88891951884</v>
+        <v>0.01680067066866667</v>
       </c>
       <c r="R4">
-        <v>89.00027566956</v>
+        <v>0.151206036018</v>
       </c>
       <c r="S4">
-        <v>0.02605731967790906</v>
+        <v>4.28474925220344E-05</v>
       </c>
       <c r="T4">
-        <v>0.02605731967790906</v>
+        <v>4.284749252203441E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>14.768619</v>
+      </c>
+      <c r="H5">
+        <v>44.305857</v>
+      </c>
+      <c r="I5">
+        <v>0.9607931545923257</v>
+      </c>
+      <c r="J5">
+        <v>0.9607931545923256</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.006053333333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.01816</v>
+      </c>
+      <c r="O5">
+        <v>0.0002373030766683641</v>
+      </c>
+      <c r="P5">
+        <v>0.0002373030766683641</v>
+      </c>
+      <c r="Q5">
+        <v>0.08939937368</v>
+      </c>
+      <c r="R5">
+        <v>0.80459436312</v>
+      </c>
+      <c r="S5">
+        <v>0.0002279991716266621</v>
+      </c>
+      <c r="T5">
+        <v>0.0002279991716266621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>14.768619</v>
+      </c>
+      <c r="H6">
+        <v>44.305857</v>
+      </c>
+      <c r="I6">
+        <v>0.9607931545923257</v>
+      </c>
+      <c r="J6">
+        <v>0.9607931545923256</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>24.759128</v>
+      </c>
+      <c r="N6">
+        <v>74.277384</v>
+      </c>
+      <c r="O6">
+        <v>0.970608576546119</v>
+      </c>
+      <c r="P6">
+        <v>0.9706085765461191</v>
+      </c>
+      <c r="Q6">
+        <v>365.658128204232</v>
+      </c>
+      <c r="R6">
+        <v>3290.923153838088</v>
+      </c>
+      <c r="S6">
+        <v>0.9325540761341126</v>
+      </c>
+      <c r="T6">
+        <v>0.9325540761341126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>14.768619</v>
+      </c>
+      <c r="H7">
+        <v>44.305857</v>
+      </c>
+      <c r="I7">
+        <v>0.9607931545923257</v>
+      </c>
+      <c r="J7">
+        <v>0.9607931545923256</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7436886666666668</v>
+      </c>
+      <c r="N7">
+        <v>2.231066</v>
+      </c>
+      <c r="O7">
+        <v>0.02915412037721258</v>
+      </c>
+      <c r="P7">
+        <v>0.02915412037721259</v>
+      </c>
+      <c r="Q7">
+        <v>10.983254572618</v>
+      </c>
+      <c r="R7">
+        <v>98.84929115356202</v>
+      </c>
+      <c r="S7">
+        <v>0.02801107928658648</v>
+      </c>
+      <c r="T7">
+        <v>0.02801107928658648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5800683333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.740205</v>
+      </c>
+      <c r="I8">
+        <v>0.03773715632195847</v>
+      </c>
+      <c r="J8">
+        <v>0.03773715632195847</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.006053333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.01816</v>
+      </c>
+      <c r="O8">
+        <v>0.0002373030766683641</v>
+      </c>
+      <c r="P8">
+        <v>0.0002373030766683641</v>
+      </c>
+      <c r="Q8">
+        <v>0.003511346977777777</v>
+      </c>
+      <c r="R8">
+        <v>0.0316021228</v>
+      </c>
+      <c r="S8">
+        <v>8.955143299915752E-06</v>
+      </c>
+      <c r="T8">
+        <v>8.955143299915753E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.399405</v>
-      </c>
-      <c r="H5">
-        <v>1.198215</v>
-      </c>
-      <c r="I5">
-        <v>0.02633203903158381</v>
-      </c>
-      <c r="J5">
-        <v>0.02633203903158381</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.2610326666666666</v>
-      </c>
-      <c r="N5">
-        <v>0.783098</v>
-      </c>
-      <c r="O5">
-        <v>0.0104328933032964</v>
-      </c>
-      <c r="P5">
-        <v>0.0104328933032964</v>
-      </c>
-      <c r="Q5">
-        <v>0.10425775223</v>
-      </c>
-      <c r="R5">
-        <v>0.93831977007</v>
-      </c>
-      <c r="S5">
-        <v>0.0002747193536747502</v>
-      </c>
-      <c r="T5">
-        <v>0.0002747193536747502</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5800683333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.740205</v>
+      </c>
+      <c r="I9">
+        <v>0.03773715632195847</v>
+      </c>
+      <c r="J9">
+        <v>0.03773715632195847</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>24.759128</v>
+      </c>
+      <c r="N9">
+        <v>74.277384</v>
+      </c>
+      <c r="O9">
+        <v>0.970608576546119</v>
+      </c>
+      <c r="P9">
+        <v>0.9706085765461191</v>
+      </c>
+      <c r="Q9">
+        <v>14.36198611374667</v>
+      </c>
+      <c r="R9">
+        <v>129.25787502372</v>
+      </c>
+      <c r="S9">
+        <v>0.03662800758055448</v>
+      </c>
+      <c r="T9">
+        <v>0.03662800758055449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5800683333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.740205</v>
+      </c>
+      <c r="I10">
+        <v>0.03773715632195847</v>
+      </c>
+      <c r="J10">
+        <v>0.03773715632195847</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7436886666666668</v>
+      </c>
+      <c r="N10">
+        <v>2.231066</v>
+      </c>
+      <c r="O10">
+        <v>0.02915412037721258</v>
+      </c>
+      <c r="P10">
+        <v>0.02915412037721259</v>
+      </c>
+      <c r="Q10">
+        <v>0.4313902453922223</v>
+      </c>
+      <c r="R10">
+        <v>3.882512208530001</v>
+      </c>
+      <c r="S10">
+        <v>0.001100193598104066</v>
+      </c>
+      <c r="T10">
+        <v>0.001100193598104066</v>
       </c>
     </row>
   </sheetData>
